--- a/node_data_lsa.xlsx
+++ b/node_data_lsa.xlsx
@@ -468,10 +468,10 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -678,10 +678,10 @@
         <v>114</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -692,10 +692,10 @@
         <v>115</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1070,10 +1070,10 @@
         <v>401</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1098,10 +1098,10 @@
         <v>404</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1266,10 +1266,10 @@
         <v>555</v>
       </c>
       <c r="C62">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1630,10 +1630,10 @@
         <v>906</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1644,10 +1644,10 @@
         <v>911</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4">

--- a/node_data_lsa.xlsx
+++ b/node_data_lsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -25,25 +25,25 @@
     <t>color</t>
   </si>
   <si>
-    <t>gray</t>
+    <t>#19D3F3</t>
   </si>
   <si>
     <t>#636EFA</t>
   </si>
   <si>
-    <t>#19D3F3</t>
+    <t>gray</t>
+  </si>
+  <si>
+    <t>#FFA15A</t>
   </si>
   <si>
     <t>#AB63FA</t>
   </si>
   <si>
-    <t>#EF553B</t>
+    <t>#00CC96</t>
   </si>
   <si>
-    <t>#FFA15A</t>
-  </si>
-  <si>
-    <t>#00CC96</t>
+    <t>#EF553B</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,10 +423,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -493,13 +493,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>-1</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -507,13 +507,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -521,13 +521,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -535,13 +535,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -549,13 +549,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -563,13 +563,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>-1</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -577,13 +577,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C13">
         <v>-1</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -591,10 +591,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -605,13 +605,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C15">
         <v>-1</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -619,13 +619,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -633,13 +633,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -647,10 +647,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -661,13 +661,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -675,13 +675,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -689,13 +689,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -703,13 +703,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -717,13 +717,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -731,13 +731,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C24">
         <v>-1</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -745,13 +745,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -759,13 +759,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C26">
         <v>-1</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -773,13 +773,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -787,13 +787,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -801,10 +801,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -815,13 +815,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -829,10 +829,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -843,13 +843,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C32">
         <v>-1</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -857,10 +857,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -871,13 +871,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -885,13 +885,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -899,10 +899,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -913,13 +913,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -927,13 +927,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -941,13 +941,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -955,13 +955,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="C40">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -969,13 +969,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -983,13 +983,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="C42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -997,13 +997,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="C43">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1011,13 +1011,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>353</v>
+        <v>297</v>
       </c>
       <c r="C44">
         <v>-1</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1025,13 +1025,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="C45">
         <v>-1</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1039,13 +1039,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>398</v>
+        <v>309</v>
       </c>
       <c r="C46">
         <v>-1</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1053,10 +1053,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>400</v>
+        <v>316</v>
       </c>
       <c r="C47">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -1067,13 +1067,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>401</v>
+        <v>342</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1081,13 +1081,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1095,13 +1095,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="C50">
         <v>-1</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1109,13 +1109,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="C51">
         <v>-1</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1123,13 +1123,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="C52">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1137,10 +1137,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="C53">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="C54">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
         <v>3</v>
@@ -1165,13 +1165,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="C55">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1179,13 +1179,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1193,13 +1193,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1207,13 +1207,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1221,13 +1221,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1235,13 +1235,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1249,13 +1249,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="C61">
         <v>-1</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1263,13 +1263,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1277,13 +1277,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>559</v>
+        <v>506</v>
       </c>
       <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
         <v>4</v>
-      </c>
-      <c r="D63" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1291,10 +1291,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>569</v>
+        <v>508</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -1305,13 +1305,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="C65">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1319,13 +1319,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>601</v>
+        <v>558</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D66" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1333,13 +1333,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>640</v>
+        <v>559</v>
       </c>
       <c r="C67">
         <v>-1</v>
       </c>
       <c r="D67" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1347,13 +1347,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>657</v>
+        <v>560</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1361,10 +1361,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>669</v>
+        <v>562</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -1375,13 +1375,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>686</v>
+        <v>575</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1389,13 +1389,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>721</v>
+        <v>578</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1403,13 +1403,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>728</v>
+        <v>579</v>
       </c>
       <c r="C72">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1417,13 +1417,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>732</v>
+        <v>580</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1431,10 +1431,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>741</v>
+        <v>614</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1445,13 +1445,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>757</v>
+        <v>615</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1459,13 +1459,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>759</v>
+        <v>621</v>
       </c>
       <c r="C76">
         <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1473,13 +1473,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>763</v>
+        <v>629</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1487,13 +1487,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>781</v>
+        <v>649</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1501,13 +1501,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>802</v>
+        <v>675</v>
       </c>
       <c r="C79">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1515,13 +1515,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>809</v>
+        <v>696</v>
       </c>
       <c r="C80">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1529,13 +1529,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>821</v>
+        <v>713</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1543,10 +1543,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>831</v>
+        <v>717</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1557,13 +1557,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>834</v>
+        <v>727</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1571,13 +1571,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>850</v>
+        <v>740</v>
       </c>
       <c r="C84">
         <v>-1</v>
       </c>
       <c r="D84" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1585,13 +1585,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>854</v>
+        <v>760</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1599,13 +1599,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>858</v>
+        <v>799</v>
       </c>
       <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
         <v>4</v>
-      </c>
-      <c r="D86" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1613,13 +1613,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>901</v>
+        <v>816</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1627,13 +1627,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="C88">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1641,13 +1641,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>911</v>
+        <v>844</v>
       </c>
       <c r="C89">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1655,13 +1655,279 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>924</v>
+        <v>877</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>884</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>888</v>
+      </c>
+      <c r="C92">
+        <v>-1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>898</v>
+      </c>
+      <c r="C93">
+        <v>-1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>914</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>916</v>
+      </c>
+      <c r="C95">
+        <v>-1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>920</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>935</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>956</v>
+      </c>
+      <c r="C98">
+        <v>-1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>963</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>975</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>985</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>988</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>1004</v>
+      </c>
+      <c r="C103">
+        <v>-1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>1008</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>1012</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>1056</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>1061</v>
+      </c>
+      <c r="C107">
+        <v>-1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>1066</v>
+      </c>
+      <c r="C108">
+        <v>-1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>1079</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
